--- a/biology/Médecine/NOD1/NOD1.xlsx
+++ b/biology/Médecine/NOD1/NOD1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le NOD1 (pour « Nucleotide-binding oligomerization domain-containing protein 1 ») est une protéine récepteur de type NOD. Son gène est le NOD1, situé sur le chromosome 7 humain.
 </t>
@@ -511,11 +523,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est exprimé dans divers organes dans le monde animal.
-Il stimule l'apoptose[5].
-Il est exprimé par les cardiomyocytes, particulièrement en cas de diabète de type 2[5]. Il intervient également dans la genèse de l'athérome[6]. Il active le NF-κB, pouvant induire une dysfonction du muscle cardiaque[7]. Son expression est aussi augmentée en cas d'insuffisance cardiaque, modulant le calcium intra cellulaire[8].
+Il stimule l'apoptose.
+Il est exprimé par les cardiomyocytes, particulièrement en cas de diabète de type 2. Il intervient également dans la genèse de l'athérome. Il active le NF-κB, pouvant induire une dysfonction du muscle cardiaque. Son expression est aussi augmentée en cas d'insuffisance cardiaque, modulant le calcium intra cellulaire.
 </t>
         </is>
       </c>
